--- a/Cell Phone Plans compared.xlsx
+++ b/Cell Phone Plans compared.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vmware-host\Shared Folders\Documents\OneDrive\_Applications Class\Excel Problem Solving\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victoria\Documents\Excel Projects\ExcelExamples\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7804D741-A095-4727-9B65-EF96F41CD11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="0" windowWidth="25845" windowHeight="17535" tabRatio="500" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15034" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cat or Dog (2)" sheetId="9" r:id="rId1"/>
@@ -21,8 +22,17 @@
     <sheet name="cell phones" sheetId="1" r:id="rId7"/>
     <sheet name="cars" sheetId="3" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -342,7 +352,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
@@ -499,7 +509,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -526,8 +536,6 @@
     <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -591,7 +599,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -644,6 +652,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-916C-479F-BB1B-5B5E5521B149}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -705,7 +718,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -764,6 +777,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2F78-4ABE-A317-A8A223C761E6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -825,7 +843,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -884,6 +902,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3229-4D9A-961F-C0276C57269F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -945,7 +968,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1004,6 +1027,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3929-40F4-9F37-39ABF97E6389}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1065,7 +1093,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1118,6 +1146,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BA60-4362-9BBA-E4D44FF572C1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1179,7 +1212,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1238,6 +1271,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-00F5-4F84-B818-59BAC6AB1B46}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1299,7 +1337,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1358,6 +1396,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F255-44B0-9E26-3442E787AF6D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1419,7 +1462,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1488,6 +1531,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-204B-4F5A-8494-20035B9BAEC0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1549,7 +1597,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1608,6 +1656,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9EAD-454B-83BC-917385CCC8AD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1669,7 +1722,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1728,6 +1781,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7882-4705-97DA-017435847FB2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1805,7 +1863,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1842,7 +1906,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1872,7 +1942,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1907,7 +1983,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1942,7 +2024,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1972,7 +2060,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2007,7 +2101,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2037,7 +2137,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2072,7 +2178,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2102,7 +2214,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2441,19 +2559,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="1" max="1" width="14.2109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>79</v>
       </c>
@@ -2461,98 +2579,98 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="25" t="s">
         <v>80</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="16" t="s">
         <v>82</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="16" t="s">
         <v>83</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="16" t="s">
         <v>84</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="16" t="s">
         <v>90</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="16" t="s">
         <v>85</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="16" t="s">
         <v>94</v>
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="24" t="s">
         <v>81</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="15" t="s">
         <v>86</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="15" t="s">
         <v>87</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="15" t="s">
         <v>88</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="15" t="s">
         <v>91</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="15" t="s">
         <v>92</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>79</v>
       </c>
@@ -2560,7 +2678,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="15" t="s">
         <v>93</v>
       </c>
@@ -2581,19 +2699,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>76</v>
       </c>
@@ -2616,7 +2734,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -2640,7 +2758,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -2664,7 +2782,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -2688,7 +2806,7 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -2712,7 +2830,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -2736,7 +2854,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -2760,7 +2878,7 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -2784,7 +2902,7 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -2808,7 +2926,7 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -2832,7 +2950,7 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -2856,7 +2974,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -2880,7 +2998,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -2904,7 +3022,7 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -2928,7 +3046,7 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -2952,7 +3070,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -2976,7 +3094,7 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="G18" t="s">
         <v>76</v>
       </c>
@@ -2987,7 +3105,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="F19" t="s">
         <v>58</v>
       </c>
@@ -3016,19 +3134,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:N19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F17" sqref="F2:F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>76</v>
       </c>
@@ -3063,7 +3181,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -3107,7 +3225,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -3151,7 +3269,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -3195,7 +3313,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -3239,7 +3357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -3283,7 +3401,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -3327,7 +3445,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -3371,7 +3489,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -3415,7 +3533,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -3459,7 +3577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -3503,7 +3621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -3547,7 +3665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -3589,7 +3707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -3631,7 +3749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -3673,7 +3791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -3715,7 +3833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="G18" t="s">
         <v>76</v>
       </c>
@@ -3735,7 +3853,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="G19" s="12">
         <f>SUM(G3:G17)</f>
         <v>82.79</v>
@@ -3774,16 +3892,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>79</v>
       </c>
@@ -3791,14 +3909,14 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="16" t="s">
         <v>80</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="16" t="s">
         <v>82</v>
       </c>
@@ -3809,7 +3927,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="16" t="s">
         <v>83</v>
       </c>
@@ -3820,7 +3938,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="16" t="s">
         <v>84</v>
       </c>
@@ -3831,7 +3949,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="16" t="s">
         <v>90</v>
       </c>
@@ -3842,7 +3960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="16" t="s">
         <v>85</v>
       </c>
@@ -3851,7 +3969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="16" t="s">
         <v>94</v>
       </c>
@@ -3864,14 +3982,14 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="15" t="s">
         <v>81</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="15" t="s">
         <v>86</v>
       </c>
@@ -3882,7 +4000,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="15" t="s">
         <v>87</v>
       </c>
@@ -3891,7 +4009,7 @@
       </c>
       <c r="C13" s="23"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="15" t="s">
         <v>88</v>
       </c>
@@ -3900,7 +4018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="15" t="s">
         <v>91</v>
       </c>
@@ -3913,7 +4031,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="15" t="s">
         <v>92</v>
       </c>
@@ -3926,7 +4044,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>79</v>
       </c>
@@ -3934,7 +4052,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="15" t="s">
         <v>93</v>
       </c>
@@ -3959,199 +4077,198 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="24.5" customWidth="1"/>
-    <col min="2" max="4" width="11" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4165,23 +4282,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.375" customWidth="1"/>
+    <col min="1" max="1" width="23.35546875" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.625" customWidth="1"/>
-    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="25.640625" customWidth="1"/>
+    <col min="7" max="7" width="14.640625" customWidth="1"/>
     <col min="8" max="9" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -4207,7 +4324,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -4233,7 +4350,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -4241,7 +4358,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -4267,7 +4384,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -4293,7 +4410,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -4325,7 +4442,7 @@
         <v>3.3636363636363638E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -4333,7 +4450,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -4361,7 +4478,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -4393,7 +4510,7 @@
         <v>4204.545454545455</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -4419,13 +4536,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -4457,7 +4574,7 @@
         <v>8409.0909090909099</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B13" s="8" t="s">
         <v>15</v>
       </c>
@@ -4477,7 +4594,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="8" t="s">
         <v>27</v>
       </c>
@@ -4509,7 +4626,7 @@
         <v>8958.0909090909099</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -4523,7 +4640,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -4537,7 +4654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -4551,7 +4668,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -4580,19 +4697,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -4618,7 +4735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4626,7 +4743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -4652,7 +4769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -4660,7 +4777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -4686,7 +4803,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -4712,7 +4829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -4738,7 +4855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -4764,7 +4881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
@@ -4796,7 +4913,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
         <v>11</v>
       </c>
@@ -4841,24 +4958,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.125" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.125" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
     <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -4884,7 +5001,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -4892,7 +5009,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -4922,7 +5039,7 @@
         <v>100800</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4952,7 +5069,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -4962,7 +5079,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -4977,7 +5094,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -5004,7 +5121,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -5036,7 +5153,7 @@
         <v>7023.5294117647063</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -5062,7 +5179,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -5088,7 +5205,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -5114,7 +5231,7 @@
         <v>3.98</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -5146,7 +5263,7 @@
         <v>8.3333333333333339</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -5178,7 +5295,7 @@
         <v>87696.07843137256</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -5210,7 +5327,7 @@
         <v>195696.07843137256</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>31</v>
       </c>
@@ -5230,7 +5347,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>44</v>
       </c>
